--- a/CucumberRatesAPIAutomation/resources/RatessAPI_Manual_Testcases.xlsx
+++ b/CucumberRatesAPIAutomation/resources/RatessAPI_Manual_Testcases.xlsx
@@ -5,17 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\git\RatesAPIAutomation\CucumberRatesAPIAutomation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="API_001" sheetId="1" r:id="rId1"/>
     <sheet name="API_002" sheetId="2" r:id="rId2"/>
     <sheet name="API_003" sheetId="3" r:id="rId3"/>
     <sheet name="API_004" sheetId="4" r:id="rId4"/>
+    <sheet name="API_005" sheetId="5" r:id="rId5"/>
+    <sheet name="API_006" sheetId="6" r:id="rId6"/>
+    <sheet name="API_007" sheetId="7" r:id="rId7"/>
+    <sheet name="API_008" sheetId="8" r:id="rId8"/>
+    <sheet name="API_009" sheetId="9" r:id="rId9"/>
+    <sheet name="API_010" sheetId="10" r:id="rId10"/>
+    <sheet name="API_011" sheetId="11" r:id="rId11"/>
+    <sheet name="API_012" sheetId="12" r:id="rId12"/>
+    <sheet name="API_013" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="74">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -160,11 +169,193 @@
 URI : /&lt;&lt;Future Date&gt;&gt;</t>
   </si>
   <si>
+    <t>User request for Future exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /&lt;&lt;Future Date&gt;&gt;
+Query Parameter: symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t>User request for Future exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /latest
+Query Parameter: symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t>Latest Forign exchange rates for specific currecy</t>
+  </si>
+  <si>
+    <t>API_005</t>
+  </si>
+  <si>
+    <t>API_004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Should get response object and validate following:
 status code : 200
 Status Line : OK
-Response Body : Exchare rate should present for current date
+Response Body : Exchange rate should present for current date
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should get response object and validate following:
+status code : 200
+Response Body : Exchange rates should display for USD and GBP
+</t>
+  </si>
+  <si>
+    <t>API_006</t>
+  </si>
+  <si>
+    <t>User request for Future exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /latest
+Query Parameter: base=USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should get response object and validate following:
+status code : 200
+Response Body : Exchange rates should display for USD as base
+</t>
+  </si>
+  <si>
+    <t>Latest Forign exchange rates for currecy type</t>
+  </si>
+  <si>
+    <t>Latest Forign exchange rates for specific currecy and type</t>
+  </si>
+  <si>
+    <t>API_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should get response object and validate following:
+status code : 200
+Response Body : Exchange rates should display for USD and GBP
+and base = USD
+</t>
+  </si>
+  <si>
+    <t>User request for Future exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /latest
+Query Parameters: symbols=USD,GBP
+base=USD</t>
+  </si>
+  <si>
+    <t>Forign exchange rates for any historical date with specific currecy</t>
+  </si>
+  <si>
+    <t>User request for Historical exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /2010-01-12
+Query Parameter: symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should get response object and validate following:
+status code : 200
+Status Line : OK
+Response Body : Exchage rates should present for specific historic date and for  specific currency USD, GBP
+</t>
+  </si>
+  <si>
+    <t>Forign exchange rates for any historical date with  currecy type</t>
+  </si>
+  <si>
+    <t>User request for Historical exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /2010-01-12
+Query Parameter: base=USD</t>
+  </si>
+  <si>
+    <t>Should get response object and validate following:
+status code : 200
+Status Line : OK
+Response Body : Exchage rates should present for specific historic date and currency type USD</t>
+  </si>
+  <si>
+    <t>API_009</t>
+  </si>
+  <si>
+    <t>API_008</t>
+  </si>
+  <si>
+    <t>Forign exchange rates for any historical date with  specific currecy and type</t>
+  </si>
+  <si>
+    <t>User request for Historical exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /2010-01-12
+Query Parameter: base=USD
+symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t>Should get response object and validate following:
+status code : 200
+Status Line : OK
+Response Body : Exchage rates should present for specific historic date and currency type USD and symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t>API_010</t>
+  </si>
+  <si>
+    <t>Should get response object and validate following:
+status code : 200
+Status Line : OK
+Response Body : Exchange rate should present for current date
+and for  specific currency USD, GBP</t>
+  </si>
+  <si>
+    <t>Forign exchange rates for any future date with specific currecy</t>
+  </si>
+  <si>
+    <t>Forign exchange rates for any future date with specific currecy type</t>
+  </si>
+  <si>
+    <t>User request for Future exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /&lt;&lt;Future Date&gt;&gt;
+Query Parameter: base=USD</t>
+  </si>
+  <si>
+    <t>Should get response object and validate following:
+status code : 200
+Status Line : OK
+Response Body : Exchange rate should present for current date
+and currency type USD</t>
+  </si>
+  <si>
+    <t>API_012</t>
+  </si>
+  <si>
+    <t>API_011</t>
+  </si>
+  <si>
+    <t>User request for Future exchange rates
+URL : https://api.ratesapi.io/api
+Method : GET
+URI : /&lt;&lt;Future Date&gt;&gt;
+Query Parameter: base=USD
+symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t>Should get response object and validate following:
+status code : 200
+Status Line : OK
+Response Body : Exchange rate should present for current date
+and currency type USD and symbols=USD,GBP</t>
+  </si>
+  <si>
+    <t>Forign exchange rates for any future date with  specific currecy and type</t>
+  </si>
+  <si>
+    <t>API_013</t>
   </si>
 </sst>
 </file>
@@ -372,39 +563,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -413,32 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -446,31 +592,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,28 +610,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -512,7 +640,73 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,265 +1000,1487 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="27">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="27">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1107,7 +2523,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,265 +2533,1189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="27">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="27">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1413,12 +3753,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,265 +3767,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="27">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="27">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
+      <c r="B16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1723,12 +4057,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,265 +4071,871 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="27">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="27">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
+      <c r="B16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="29">
